--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,16 +20,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>небаланс</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,17 +76,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,7 +409,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" ref="B8:B10" si="0">B7/2</f>
+        <f t="shared" ref="B8:B9" si="0">B7/2</f>
         <v>0.25</v>
       </c>
       <c r="C8" s="2">
@@ -408,4 +438,121 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>1.89515958481934E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="5">
+        <v>9.7134034149348694E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>13430.688255930199</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.22499775918446E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>7851.2918235694697</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C6/C7</f>
+        <v>1.7106341934217066</v>
+      </c>
+      <c r="J7" s="4">
+        <v>46905.662739758001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4037.1463623796999</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C7/C8</f>
+        <v>1.9447627405169226</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>2.5758992925432999E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3.8105007740950998</v>
+      </c>
+      <c r="J17" s="6">
+        <v>5511.0873153616103</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>2.5414713044053499E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <f>LOG(C17/C18,2)</f>
+        <v>1.941224939668279E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5.1865848009048499</v>
+      </c>
+      <c r="H18" s="3">
+        <f>LOG(G17/G18,2)</f>
+        <v>-0.44480427453999261</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3596.9915365602101</v>
+      </c>
+      <c r="K18" s="3">
+        <f>J17/J18</f>
+        <v>1.5321379712313261</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="e">
+        <f>LOG(G18/G19,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3" t="e">
+        <f>J18/J19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>небаланс</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33,7 +30,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -88,7 +85,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -442,10 +439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K20"/>
+  <dimension ref="C4:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,28 +453,17 @@
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J4" s="4">
-        <v>1.89515958481934E-10</v>
-      </c>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J5" s="5">
-        <v>9.7134034149348694E-10</v>
-      </c>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>13430.688255930199</v>
       </c>
-      <c r="J6" s="4">
-        <v>1.22499775918446E-8</v>
-      </c>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7">
@@ -487,9 +473,7 @@
         <f>C6/C7</f>
         <v>1.7106341934217066</v>
       </c>
-      <c r="J7" s="4">
-        <v>46905.662739758001</v>
-      </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8">
@@ -504,12 +488,8 @@
       <c r="C17" s="2">
         <v>2.5758992925432999E-2</v>
       </c>
-      <c r="G17" s="7">
-        <v>3.8105007740950998</v>
-      </c>
-      <c r="J17" s="6">
-        <v>5511.0873153616103</v>
-      </c>
+      <c r="G17" s="7"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
@@ -519,33 +499,17 @@
         <f>LOG(C17/C18,2)</f>
         <v>1.941224939668279E-2</v>
       </c>
-      <c r="G18" s="3">
-        <v>5.1865848009048499</v>
-      </c>
-      <c r="H18" s="3">
-        <f>LOG(G17/G18,2)</f>
-        <v>-0.44480427453999261</v>
-      </c>
-      <c r="J18" s="6">
-        <v>3596.9915365602101</v>
-      </c>
-      <c r="K18" s="3">
-        <f>J17/J18</f>
-        <v>1.5321379712313261</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="3" t="e">
-        <f>LOG(G18/G19,2)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3" t="e">
-        <f>J18/J19</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
@@ -555,4 +519,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1.2968276598366199E-9</v>
+      </c>
+      <c r="F8" s="3">
+        <f>E8/E9</f>
+        <v>1.6913097550158236</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>7.6675940405989505E-10</v>
+      </c>
+      <c r="F9" s="3">
+        <f>E9/E10</f>
+        <v>2.082807907679288</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>3.6813735977900899E-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>